--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\2022\ECshop\ddd-it-proj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24195E39-A757-4AD2-B490-5D39C169E218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D97698E-6AA8-43AE-A99D-C2AE345F7716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1"/>
@@ -501,6 +501,129 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ一覧に戻る</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ追加フォーム</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワード再度入力</t>
+    <rPh sb="5" eb="7">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ一覧画面に戻ります</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ追加チェック画面に戻ります</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ追加チェック</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ完了画面に遷移します</t>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ追加フォームに戻ります</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2437,16 +2560,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BF22AD-7E20-475F-AC82-95621F778478}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2620,13 +2743,37 @@
       <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="2"/>
+      <c r="B23" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="2"/>
+      <c r="A24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="B25" s="2"/>
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="2"/>
@@ -2635,7 +2782,196 @@
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>86</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2648,7 +2984,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\2022\ECshop\ddd-it-proj1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kanatechwest-my.sharepoint.com/personal/j264663_kanatech-west_ac_jp/Documents/aa/ddd-it-proj1-main/ddd-it-proj1-main/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D97698E-6AA8-43AE-A99D-C2AE345F7716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{5D97698E-6AA8-43AE-A99D-C2AE345F7716}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24494F71-F82A-4BE9-A836-2055B9E9E1F0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発環境" sheetId="1" r:id="rId1"/>
@@ -18,19 +18,105 @@
     <sheet name="画面遷移図" sheetId="3" r:id="rId3"/>
     <sheet name="テーブル定義" sheetId="4" r:id="rId4"/>
     <sheet name="画面設計（スタッフ）" sheetId="6" r:id="rId5"/>
-    <sheet name="インフラ構築" sheetId="5" r:id="rId6"/>
+    <sheet name="画面設計（商品）" sheetId="7" r:id="rId6"/>
+    <sheet name="インフラ構築" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="153">
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IntelliJ(Community Edition)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>言語</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フレームワーク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インフラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AWS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ビルドツール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maven</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用技術</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ギジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>junit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
   <si>
     <t>URL</t>
     <phoneticPr fontId="1"/>
@@ -47,22 +133,258 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>分類</t>
+    <t>スタッフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/staff/list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ一覧画面を表示する</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/staff/staff_add</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフを登録する</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/staff/staff_add_check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフの追加情報を確認する</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/staff/staff_add_done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフの追加完了を表示する</t>
+    <rPh sb="5" eb="7">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/staff/staff_edit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフの情報を修正する</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/staff/staff_edit_check</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフの修正情報を変更する</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/staff/staff_edit_done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフの修正情報を完了する</t>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/staff/staff_delete</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/staff/staff_delete_done</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品</t>
     <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/staff/list</t>
-    <phoneticPr fontId="1"/>
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/product/list</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧画面を表示する</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/product/product_add</t>
+  </si>
+  <si>
+    <t>商品を登録する</t>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/product/product_add_check</t>
+  </si>
+  <si>
+    <t>商品の追加情報を確認する</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/product/product_add_done</t>
+  </si>
+  <si>
+    <t>商品の追加完了を表示する</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/product/product_edit</t>
+  </si>
+  <si>
+    <t>商品の情報を修正する</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/product/product_edit_check</t>
+  </si>
+  <si>
+    <t>商品の修正情報を変更する</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/product/product_edit_done</t>
+  </si>
+  <si>
+    <t>商品の修正情報を完了する</t>
+    <rPh sb="3" eb="5">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/product/product_delete</t>
+  </si>
+  <si>
+    <t>/product/product_delete_done</t>
   </si>
   <si>
     <t>スタッフテーブル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>m_staff</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -94,20 +416,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>m_staff</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スタッフID</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>staff_id</t>
-    <phoneticPr fontId="1"/>
+    <t>id</t>
   </si>
   <si>
     <t>INT</t>
@@ -132,6 +445,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>VARCHAR(15)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>パスワード</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -144,196 +461,46 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>VARCHAR(15)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/staff/staff_add</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GET</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/staff/staff_add_check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/staff/staff_add_done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフ一覧画面を表示する</t>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフを登録する</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフの追加完了を表示する</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフの情報を修正する</t>
-    <rPh sb="5" eb="7">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/staff/staff_edit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/staff/staff_edit_check</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフの修正情報を変更する</t>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフの追加情報を確認する</t>
-    <rPh sb="5" eb="7">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/staff/staff_edit_done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフの修正情報を完了する</t>
-    <rPh sb="5" eb="7">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カンリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/staff/staff_delete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>/staff/staff_delete_done</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IDE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バージョン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>言語</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンゴ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フレームワーク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>インフラ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>junit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビルドツール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IntelliJ(Community Edition)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>名前</t>
-    <rPh sb="0" eb="2">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Spring</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AWS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>maven</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>使用技術</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ギジュツ</t>
+    <t>m_product</t>
+  </si>
+  <si>
+    <t>商品コード</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+  </si>
+  <si>
+    <t>価格</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>画像</t>
+  </si>
+  <si>
+    <t>gazou</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ページ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -352,6 +519,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
       <t>コウモク</t>
@@ -363,6 +537,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>出力</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>アクション</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,20 +562,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>番号</t>
-    <rPh sb="0" eb="2">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出力</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>参照</t>
     <rPh sb="0" eb="2">
       <t>サンショウ</t>
@@ -402,6 +569,23 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ参照画面に遷移します。</t>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -409,6 +593,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>スタッフ追加画面に遷移します。</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>修正</t>
     <rPh sb="0" eb="2">
       <t>シュウセイ</t>
@@ -416,6 +616,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>スタッフ修正画面に遷移します。</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>削除</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -423,55 +639,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフ参照画面に遷移します。</t>
-    <rPh sb="4" eb="6">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフ追加画面に遷移します。</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サンカク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>スタッフ修正画面に遷移します。</t>
-    <rPh sb="4" eb="6">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>サンカク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スタッフ削除画面に遷移します。</t>
     <rPh sb="4" eb="6">
       <t>サクジョ</t>
@@ -488,13 +655,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ページ名</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スタッフ情報参照</t>
     <rPh sb="4" eb="6">
       <t>ジョウホウ</t>
@@ -505,6 +665,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>スタッフコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>戻る</t>
+    <rPh sb="0" eb="1">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>スタッフ一覧に戻る</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
@@ -515,20 +686,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>出力</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>戻る</t>
-    <rPh sb="0" eb="1">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スタッフ追加フォーム</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
@@ -543,10 +700,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワード再度入力</t>
     <rPh sb="5" eb="7">
       <t>サイド</t>
@@ -557,14 +710,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>OK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リンク</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>スタッフ一覧画面に戻ります</t>
     <rPh sb="4" eb="6">
       <t>イチラン</t>
@@ -578,6 +723,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>OK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>スタッフ追加チェック画面に戻ります</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
@@ -598,9 +747,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタッフ名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
+    <t>スタッフ追加フォームに戻ります</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -618,12 +770,425 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>スタッフ追加フォームに戻ります</t>
+    <t>スタッフ追加_完了</t>
     <rPh sb="4" eb="6">
       <t>ツイカ</t>
     </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ一覧画面に戻ります。</t>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ編集フォーム</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再入力パスワード</t>
+    <rPh sb="0" eb="3">
+      <t>サイニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ修正チェック画面へ遷移します。</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ一覧画面に戻ります。</t>
+    <rPh sb="4" eb="8">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ編集チェック</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ編集フォームに戻ります</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
     <rPh sb="11" eb="12">
       <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ編集完了画面に遷移します</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ編集_完了</t>
+    <rPh sb="4" eb="6">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ削除確認</t>
+    <rPh sb="4" eb="8">
+      <t>サクジョカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ削除実行画面に遷移します。</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スタッフ削除実行</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧ページ</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品名</t>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品参照画面に遷移します。</t>
+    <rPh sb="2" eb="4">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品追加画面に遷移します。</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品修正画面に遷移します。</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品削除画面に遷移します。</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サンカク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品情報参照</t>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧に戻る</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品追加フォーム</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧画面に戻ります</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品追加チェック画面に戻ります</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品追加チェック</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品追加フォームに戻ります</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品完了画面に遷移します</t>
+    <rPh sb="2" eb="4">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品追加_完了</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧画面に戻ります。</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集フォーム</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品修正チェック画面へ遷移します。</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品一覧画面に戻ります。</t>
+    <rPh sb="2" eb="6">
+      <t>イチランガメン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集チェック</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集フォームに戻ります</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集完了画面に遷移します</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品編集_完了</t>
+    <rPh sb="2" eb="4">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品削除確認</t>
+    <rPh sb="2" eb="6">
+      <t>サクジョカクニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品削除実行画面に遷移します。</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>商品削除実行</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1985,6 +2550,1753 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594B6F57-1EB2-45B3-A897-84E2557A84B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1114425" y="5705475"/>
+          <a:ext cx="1162050" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D108C10-0850-434E-A784-BBE3BCC8FD13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="5000625"/>
+          <a:ext cx="1466850" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>商品情報参照</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="コネクタ: カギ線 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26FD71CF-EF19-4B40-BA7B-6529B51188C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="24" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2276475" y="5238750"/>
+          <a:ext cx="1009650" cy="704850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9FB176E-A230-410D-8801-442823373C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3257549" y="5715000"/>
+          <a:ext cx="1590675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{210076BE-9788-402D-A2E6-CB8687A8FA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3267074" y="6457950"/>
+          <a:ext cx="1590675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>修正フォーム</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A76A9474-4E8D-4F53-A669-7FC6FEE3DF3F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276599" y="7191375"/>
+          <a:ext cx="1590675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除確認</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{666E3CDE-B347-4313-AC84-BE77F02CE7F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3276599" y="7867650"/>
+          <a:ext cx="1590675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A75A08-EB04-443C-BA34-E1BC6D1B6E82}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5191124" y="5715000"/>
+          <a:ext cx="1590675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加チェック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="正方形/長方形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E531318-6049-4613-87AA-8B327058EE5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5181599" y="6448425"/>
+          <a:ext cx="1590675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>修正チェック</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="正方形/長方形 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E720D79B-1CFC-49AC-AA02-282EEEBF3F39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5200649" y="7200900"/>
+          <a:ext cx="1590675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>削除実行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9D09CC4-EFA0-47DA-A6A0-16B4442BF313}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115174" y="5715000"/>
+          <a:ext cx="1590675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>追加実行</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FFB209C-E110-468E-AF24-410E484349AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7096124" y="6438900"/>
+          <a:ext cx="1590675" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>商品</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>修正</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BFCFB4-F857-439F-9142-8426BE92ADEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="27" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="5943600"/>
+          <a:ext cx="981074" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523874</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="コネクタ: カギ線 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084AAFC7-4FCF-4CE3-B454-40B7651C7B29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="29" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="5943600"/>
+          <a:ext cx="990599" cy="752475"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="コネクタ: カギ線 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B6733FB-91E3-4471-AB05-D003B154FB73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="30" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="5943600"/>
+          <a:ext cx="1000124" cy="1485900"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="コネクタ: カギ線 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7619515D-8A2C-416F-8984-A9D50775561E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="23" idx="3"/>
+          <a:endCxn id="32" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2276475" y="5943600"/>
+          <a:ext cx="1000124" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA29C922-D2DC-4DD6-8336-9C9336096CFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="3"/>
+          <a:endCxn id="33" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4848224" y="5953125"/>
+          <a:ext cx="342900" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADD8E4A-DC51-40B8-AECF-4C521FD13E5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="33" idx="3"/>
+          <a:endCxn id="36" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6781799" y="5953125"/>
+          <a:ext cx="333375" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5341054-60BE-4D3E-B335-FE256A67E01B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="29" idx="3"/>
+          <a:endCxn id="34" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4857749" y="6686550"/>
+          <a:ext cx="323850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B9917DF-FE6A-4F89-86A1-B07D9BFAD06A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="34" idx="3"/>
+          <a:endCxn id="37" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6772274" y="6677025"/>
+          <a:ext cx="323850" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8001A1-8795-4F0A-8E3F-9DD8610363C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="3"/>
+          <a:endCxn id="35" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867274" y="7429500"/>
+          <a:ext cx="333375" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453F4AE7-EB61-4326-ABA3-844C212F2030}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3352800" y="8572500"/>
+          <a:ext cx="1162050" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カートを見る</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222AE2D2-2F4A-400C-8107-7A35EE623154}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5076825" y="5010150"/>
+          <a:ext cx="1466850" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カートに入れる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683AE08C-DF96-40CA-B46F-0A9A65AA0C1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4867275" y="8572500"/>
+          <a:ext cx="1162050" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>数量を変更する</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="コネクタ: カギ線 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A11BB8E-0415-4892-AFF1-8DF796DB00A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2247900" y="5943600"/>
+          <a:ext cx="1076325" cy="2867025"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="直線矢印コネクタ 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9003B1CC-EF77-4A97-B51D-D16DE92A94C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="54" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4514850" y="8810625"/>
+          <a:ext cx="352425" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>390524</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>476249</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="正方形/長方形 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B02180D5-DCE4-43F8-86D8-45716C892ACC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076324" y="9067800"/>
+          <a:ext cx="1457325" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>カートを空にする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2266,58 +4578,58 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="C2" t="s">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -2332,67 +4644,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACE98CC-CEB1-4D30-B132-5E35D09A5B3A}">
-  <dimension ref="A1:D10"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2400,73 +4715,173 @@
         <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B9FED4-608E-4775-8E32-88EDE747AD51}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2479,10 +4894,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55FF531-94F9-438F-B57F-B7A974EA9786}">
-  <dimension ref="A2:D6"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A2:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2495,60 +4913,129 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2560,25 +5047,29 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BF22AD-7E20-475F-AC82-95621F778478}">
-  <dimension ref="A1:D50"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
     <col min="4" max="4" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="19.5" customHeight="1">
@@ -2587,21 +5078,21 @@
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2609,29 +5100,29 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2639,13 +5130,13 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2653,13 +5144,13 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2667,13 +5158,13 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2681,40 +5172,40 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -2722,10 +5213,10 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2733,10 +5224,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -2744,21 +5235,21 @@
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -2766,13 +5257,13 @@
         <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -2783,29 +5274,29 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -2813,10 +5304,10 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2824,10 +5315,10 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -2835,29 +5326,29 @@
         <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="B36" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -2865,13 +5356,13 @@
         <v>4</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2879,40 +5370,40 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C39" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -2920,29 +5411,29 @@
         <v>1</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="C48" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2950,13 +5441,13 @@
         <v>2</v>
       </c>
       <c r="B49" t="s">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D49" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -2964,13 +5455,514 @@
         <v>3</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D50" t="s">
+      <c r="B52" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>64</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>64</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="B115" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" t="s">
+        <v>90</v>
+      </c>
+      <c r="D116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2980,6 +5972,933 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CD8A2C-9F46-40EF-82BC-5E824832CBF6}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D117"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="30.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C31" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>93</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="B47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" t="s">
+        <v>90</v>
+      </c>
+      <c r="D48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="B53" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" t="s">
+        <v>84</v>
+      </c>
+      <c r="D54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>1</v>
+      </c>
+      <c r="B55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="B57" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" t="s">
+        <v>86</v>
+      </c>
+      <c r="C58" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="B64" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>85</v>
+      </c>
+      <c r="B65" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="B71" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>6</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="B78" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>128</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83" t="s">
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>2</v>
+      </c>
+      <c r="B84" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" t="s">
+        <v>93</v>
+      </c>
+      <c r="D84" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="B88" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>85</v>
+      </c>
+      <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>1</v>
+      </c>
+      <c r="B90" t="s">
+        <v>128</v>
+      </c>
+      <c r="C90" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="B92" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" t="s">
+        <v>86</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>2</v>
+      </c>
+      <c r="B94" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" t="s">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="B99" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" t="s">
+        <v>86</v>
+      </c>
+      <c r="C100" t="s">
+        <v>84</v>
+      </c>
+      <c r="D100" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>1</v>
+      </c>
+      <c r="B101" t="s">
+        <v>71</v>
+      </c>
+      <c r="C101" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>2</v>
+      </c>
+      <c r="B102" t="s">
+        <v>128</v>
+      </c>
+      <c r="C102" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" t="s">
+        <v>86</v>
+      </c>
+      <c r="C105" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>3</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" t="s">
+        <v>93</v>
+      </c>
+      <c r="D107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="B111" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>85</v>
+      </c>
+      <c r="B112" t="s">
+        <v>86</v>
+      </c>
+      <c r="C112" t="s">
+        <v>84</v>
+      </c>
+      <c r="D112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="B115" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>85</v>
+      </c>
+      <c r="B116" t="s">
+        <v>86</v>
+      </c>
+      <c r="C116" t="s">
+        <v>90</v>
+      </c>
+      <c r="D116" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>1</v>
+      </c>
+      <c r="B117" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D485E08-CF5A-4A71-9FCB-C787E92D099F}">
   <dimension ref="A1"/>
   <sheetViews>
